--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="139">
   <si>
     <t>name</t>
   </si>
@@ -209,9 +209,6 @@
     <t>6001 SHELLMOUND ST STE 115</t>
   </si>
   <si>
-    <t xml:space="preserve">46923 WARM SPRINGS BLVD STE </t>
-  </si>
-  <si>
     <t>2999 REGENT ST STE 622</t>
   </si>
   <si>
@@ -221,9 +218,6 @@
     <t>2999 REGENT ST STE 225</t>
   </si>
   <si>
-    <t xml:space="preserve">7667 AMADOR VALLEY BLVD STE </t>
-  </si>
-  <si>
     <t>3095 TELEGRAPH AVE</t>
   </si>
   <si>
@@ -308,15 +302,9 @@
     <t>EMERYVILLE, CA 94608</t>
   </si>
   <si>
-    <t>207</t>
-  </si>
-  <si>
     <t>BERKELEY, CA 94705</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>OAKLAND, CA 94607</t>
   </si>
   <si>
@@ -443,9 +431,6 @@
     <t>(510) 624-9137</t>
   </si>
   <si>
-    <t>By Referral Only</t>
-  </si>
-  <si>
     <t>(925) 828-9211</t>
   </si>
   <si>
@@ -453,6 +438,12 @@
   </si>
   <si>
     <t>(800) 455-5747</t>
+  </si>
+  <si>
+    <t>46923 WARM SPRINGS BLVD STE 207</t>
+  </si>
+  <si>
+    <t>7667 AMADOR VALLEY BLVD STE 100</t>
   </si>
 </sst>
 </file>
@@ -819,12 +810,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
@@ -858,10 +851,10 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -872,10 +865,10 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -886,10 +879,10 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -900,10 +893,10 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -914,10 +907,10 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -928,10 +921,10 @@
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -942,10 +935,10 @@
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -956,10 +949,10 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -970,10 +963,10 @@
         <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -984,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -998,10 +991,10 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1012,10 +1005,10 @@
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1026,10 +1019,10 @@
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1040,10 +1033,10 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1054,10 +1047,10 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1065,16 +1058,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1082,13 +1072,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1096,13 +1086,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1110,16 +1100,13 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1130,10 +1117,10 @@
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1141,16 +1128,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1161,13 +1145,13 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1175,13 +1159,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1192,10 +1176,10 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1203,13 +1187,13 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1217,13 +1201,13 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1231,13 +1215,13 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1245,13 +1229,13 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1259,13 +1243,13 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1276,10 +1260,10 @@
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1287,30 +1271,30 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1318,13 +1302,13 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1332,13 +1316,13 @@
         <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1346,27 +1330,27 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1374,27 +1358,27 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1402,55 +1386,55 @@
         <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1458,27 +1442,27 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1486,41 +1470,38 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1528,13 +1509,13 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1542,19 +1523,19 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F50" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
